--- a/exemples/cryptoChainlinkPolygon.xlsx
+++ b/exemples/cryptoChainlinkPolygon.xlsx
@@ -105,7 +105,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,13 +134,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,7 +151,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFBBE33D"/>
       </patternFill>
     </fill>
     <fill>
@@ -181,6 +176,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -230,63 +231,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -343,7 +344,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -473,10 +474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:C4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,7 +556,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -583,7 +584,7 @@
       </c>
       <c r="L2" s="6" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>1E-009</v>
+        <v>1E-011</v>
       </c>
       <c r="M2" s="7" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
@@ -614,10 +615,10 @@
         <v>200000</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>1E-009</v>
+        <v>1E-011</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>45962</v>
+        <v>45919</v>
       </c>
       <c r="D4" s="13"/>
       <c r="G4" s="10"/>
@@ -634,7 +635,12 @@
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exemples/cryptoChainlinkPolygon.xlsx
+++ b/exemples/cryptoChainlinkPolygon.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">USDT</t>
   </si>
   <si>
-    <t xml:space="preserve">0xc2132d05d31c914a87c6611c10748aeb04b58e8f</t>
+    <t xml:space="preserve">0x3c499c542cef5e3811e1192ce70d8cc03d5c3359</t>
   </si>
   <si>
     <t xml:space="preserve">VAL dollars</t>
@@ -135,7 +135,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,7 +151,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
     <fill>
@@ -176,12 +176,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -226,7 +220,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,6 +241,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,24 +269,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -344,7 +334,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -477,7 +467,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:D4"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="A5:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -556,7 +546,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -567,79 +557,83 @@
       <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>200000</v>
-      </c>
-      <c r="J2" s="6" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="J2" s="7" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>200000</v>
-      </c>
-      <c r="K2" s="5" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="K2" s="6" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>240000</v>
-      </c>
-      <c r="L2" s="6" t="n">
+        <v>26.292</v>
+      </c>
+      <c r="L2" s="7" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>1E-011</v>
-      </c>
-      <c r="M2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
         <v>4</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="9" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
-        <v>200000</v>
-      </c>
-      <c r="B4" s="11" t="n">
-        <v>1E-011</v>
-      </c>
-      <c r="C4" s="12" t="n">
-        <v>45919</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="G4" s="10"/>
+      <c r="A4" s="12" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>45923</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/exemples/cryptoChainlinkPolygon.xlsx
+++ b/exemples/cryptoChainlinkPolygon.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:N9999"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="A4:D33"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
@@ -506,7 +506,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="19" t="inlineStr">
         <is>
@@ -573,7 +573,6 @@
           <t>heure</t>
         </is>
       </c>
-      <c r="E3" s="26" t="n"/>
       <c r="I3" s="26" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="16">
@@ -811,66 +810,168 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="26" t="n">
+    <row r="18" ht="12.75" customHeight="1" s="16">
+      <c r="A18" s="15" t="n">
         <v>13.33</v>
       </c>
-      <c r="B18" s="26" t="n">
+      <c r="B18" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="26" t="inlineStr">
+      <c r="C18" s="15" t="inlineStr">
         <is>
           <t>18/11/2025</t>
         </is>
       </c>
-      <c r="D18" s="26" t="inlineStr">
+      <c r="D18" s="15" t="inlineStr">
         <is>
           <t>01:00:34</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="26" t="n">
+    <row r="19" ht="12.75" customHeight="1" s="16">
+      <c r="A19" s="15" t="n">
         <v>13.23</v>
       </c>
-      <c r="B19" s="26" t="n">
+      <c r="B19" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C19" s="26" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr">
         <is>
           <t>19/11/2025</t>
         </is>
       </c>
-      <c r="D19" s="26" t="inlineStr">
+      <c r="D19" s="15" t="inlineStr">
         <is>
           <t>07:00:21</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" ht="12.75" customHeight="1" s="16">
+      <c r="A20" s="15" t="n">
         <v>12.96</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="15" t="inlineStr">
         <is>
           <t>19/11/2025</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="15" t="inlineStr">
         <is>
           <t>19:00:57</t>
         </is>
       </c>
     </row>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
+    <row r="21" ht="12.75" customHeight="1" s="16">
+      <c r="A21" s="15" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="B21" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="D21" s="15" t="inlineStr">
+        <is>
+          <t>19:00:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1" s="16">
+      <c r="A22" s="15" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="B22" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="15" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="D22" s="15" t="inlineStr">
+        <is>
+          <t>20:14:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1" s="16">
+      <c r="A23" s="15" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="B23" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="15" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="D23" s="15" t="inlineStr">
+        <is>
+          <t>07:00:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="26" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="B24" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="26" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="D24" s="26" t="inlineStr">
+        <is>
+          <t>14:00:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="26" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="B25" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="26" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="D25" s="26" t="inlineStr">
+        <is>
+          <t>07:00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14:00:17</t>
+        </is>
+      </c>
+    </row>
     <row r="27"/>
     <row r="28"/>
     <row r="29"/>
